--- a/TinyTotts_IL.xlsx
+++ b/TinyTotts_IL.xlsx
@@ -172,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +193,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -355,6 +362,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,11 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -905,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -931,7 +938,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="5">
@@ -1410,13 +1417,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F37">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="AITSPL"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:F37"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"Open, Closed, Pending"</formula1>
